--- a/Code/vajrang/August2022/AugustTeam2022/Week2/New Microsoft Excel Worksheet.xlsx
+++ b/Code/vajrang/August2022/AugustTeam2022/Week2/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\GitSpace\RPA-Developer-in-30-Days\Code\vajrang\August2022\AugustTeam2022\Week2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\GitHub\RPA-Developer-in-30-Days\Code\vajrang\August2022\AugustTeam2022\Week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8090D693-1AA7-4AA0-91E1-FB82E96CE179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE700F4-B6E9-4444-8A85-7A680F6AF49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2030,33 +2030,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2102,8 +2075,35 @@
     <xf numFmtId="20" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872FF642-619F-40F1-9DEB-0DD4BAC1A64F}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2493,27 +2493,27 @@
       <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="39">
         <v>3</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="45" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -2523,24 +2523,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="29"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2549,28 +2549,28 @@
       <c r="A5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="21">
         <v>1489</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="39">
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="45" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -2580,54 +2580,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="29"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="39">
         <v>2</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="45" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="18" t="s">
@@ -2637,24 +2637,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="18" t="s">
         <v>32</v>
       </c>
@@ -2663,28 +2663,28 @@
       <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="21">
         <v>226</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="39">
         <v>39</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="45" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="18" t="s">
@@ -2694,24 +2694,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="18" t="s">
         <v>39</v>
       </c>
@@ -2720,52 +2720,52 @@
       <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="21">
         <v>1759</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="39">
         <v>4</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="45" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="18" t="s">
         <v>46</v>
       </c>
@@ -2774,52 +2774,52 @@
       <c r="A21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="21">
         <v>1902</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="39">
         <v>5</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="45" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="29"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="18" t="s">
         <v>53</v>
       </c>
@@ -2828,52 +2828,52 @@
       <c r="A25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="21">
         <v>1910</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="39">
         <v>38</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="45" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="18" t="s">
         <v>60</v>
       </c>
@@ -2882,52 +2882,52 @@
       <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="21">
         <v>1818</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="39">
         <v>15</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="45" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="29"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="18" t="s">
         <v>67</v>
       </c>
@@ -2936,52 +2936,52 @@
       <c r="A33" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="21">
         <v>1872</v>
       </c>
-      <c r="E33" s="31"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="39">
         <v>6</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="45" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="26"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="29"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="18" t="s">
         <v>74</v>
       </c>
@@ -2990,28 +2990,28 @@
       <c r="A37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="21">
         <v>1851</v>
       </c>
-      <c r="E37" s="31"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="39">
         <v>24</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="45" t="s">
         <v>78</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -3020,12 +3020,12 @@
     </row>
     <row r="39" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="29"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="18" t="s">
         <v>80</v>
       </c>
@@ -3035,10 +3035,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="26"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="29"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="18" t="s">
         <v>81</v>
       </c>
@@ -3047,52 +3047,52 @@
       <c r="A41" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="28"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="21">
         <v>1672</v>
       </c>
-      <c r="E41" s="31"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="39">
         <v>44</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="45" t="s">
         <v>85</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="29"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="29"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="18" t="s">
         <v>88</v>
       </c>
@@ -3101,52 +3101,52 @@
       <c r="A45" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="21">
         <v>1739</v>
       </c>
-      <c r="E45" s="31"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="22"/>
     </row>
-    <row r="46" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="39">
         <v>43</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="45" t="s">
         <v>92</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="29"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="26"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="29"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="18" t="s">
         <v>95</v>
       </c>
@@ -3155,52 +3155,52 @@
       <c r="A49" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="28"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="21">
         <v>1555</v>
       </c>
-      <c r="E49" s="31"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="22"/>
     </row>
-    <row r="50" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="39">
         <v>76</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="45" t="s">
         <v>36</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="29"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="26"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="29"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="18" t="s">
         <v>39</v>
       </c>
@@ -3209,52 +3209,52 @@
       <c r="A53" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="28"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="21">
         <v>1867</v>
       </c>
-      <c r="E53" s="31"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="22"/>
     </row>
-    <row r="54" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="39">
         <v>67</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="45" t="s">
         <v>102</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="26"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="29"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="29"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="18" t="s">
         <v>105</v>
       </c>
@@ -3263,52 +3263,52 @@
       <c r="A57" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="28"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="21">
         <v>1803</v>
       </c>
-      <c r="E57" s="31"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="39">
         <v>65</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="45" t="s">
         <v>109</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="29"/>
+      <c r="E59" s="46"/>
       <c r="F59" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="26"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="16"/>
-      <c r="E60" s="29"/>
+      <c r="E60" s="46"/>
       <c r="F60" s="18" t="s">
         <v>112</v>
       </c>
@@ -3317,52 +3317,52 @@
       <c r="A61" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="28"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="21">
         <v>1929</v>
       </c>
-      <c r="E61" s="31"/>
+      <c r="E61" s="47"/>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="39">
         <v>66</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="45" t="s">
         <v>116</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="26"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="29"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="26"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="16"/>
-      <c r="E64" s="29"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="18" t="s">
         <v>119</v>
       </c>
@@ -3371,52 +3371,52 @@
       <c r="A65" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="28"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="21">
         <v>1968</v>
       </c>
-      <c r="E65" s="31"/>
+      <c r="E65" s="47"/>
       <c r="F65" s="22"/>
     </row>
-    <row r="66" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B66" s="39">
         <v>8</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="45" t="s">
         <v>122</v>
       </c>
       <c r="F66" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="26"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="29"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="26"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="43"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="29"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="18" t="s">
         <v>125</v>
       </c>
@@ -3425,52 +3425,52 @@
       <c r="A69" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="28"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="44"/>
       <c r="D69" s="21">
         <v>1843</v>
       </c>
-      <c r="E69" s="31"/>
+      <c r="E69" s="47"/>
       <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B70" s="39">
         <v>77</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="45" t="s">
         <v>129</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="26"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="29"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="26"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="16"/>
-      <c r="E72" s="29"/>
+      <c r="E72" s="46"/>
       <c r="F72" s="18" t="s">
         <v>132</v>
       </c>
@@ -3479,52 +3479,52 @@
       <c r="A73" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="28"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="44"/>
       <c r="D73" s="21">
         <v>1916</v>
       </c>
-      <c r="E73" s="31"/>
+      <c r="E73" s="47"/>
       <c r="F73" s="22"/>
     </row>
-    <row r="74" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="24">
+      <c r="B74" s="39">
         <v>70</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="45" t="s">
         <v>136</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="26"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E75" s="29"/>
+      <c r="E75" s="46"/>
       <c r="F75" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="26"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="43"/>
       <c r="D76" s="16"/>
-      <c r="E76" s="29"/>
+      <c r="E76" s="46"/>
       <c r="F76" s="18" t="s">
         <v>139</v>
       </c>
@@ -3533,52 +3533,52 @@
       <c r="A77" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="28"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="44"/>
       <c r="D77" s="21">
         <v>1772</v>
       </c>
-      <c r="E77" s="31"/>
+      <c r="E77" s="47"/>
       <c r="F77" s="22"/>
     </row>
-    <row r="78" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="24">
+      <c r="B78" s="39">
         <v>75</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E78" s="45" t="s">
         <v>143</v>
       </c>
       <c r="F78" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="26"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="43"/>
       <c r="D79" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E79" s="29"/>
+      <c r="E79" s="46"/>
       <c r="F79" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="26"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="16"/>
-      <c r="E80" s="29"/>
+      <c r="E80" s="46"/>
       <c r="F80" s="18" t="s">
         <v>146</v>
       </c>
@@ -3587,52 +3587,52 @@
       <c r="A81" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="28"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="44"/>
       <c r="D81" s="21">
         <v>1879</v>
       </c>
-      <c r="E81" s="31"/>
+      <c r="E81" s="47"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B82" s="24">
+      <c r="B82" s="39">
         <v>34</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E82" s="45" t="s">
         <v>102</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="26"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E83" s="29"/>
+      <c r="E83" s="46"/>
       <c r="F83" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="26"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="29"/>
+      <c r="E84" s="46"/>
       <c r="F84" s="18" t="s">
         <v>105</v>
       </c>
@@ -3641,52 +3641,52 @@
       <c r="A85" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="28"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="44"/>
       <c r="D85" s="21">
         <v>1672</v>
       </c>
-      <c r="E85" s="31"/>
+      <c r="E85" s="47"/>
       <c r="F85" s="22"/>
     </row>
-    <row r="86" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B86" s="24">
+      <c r="B86" s="39">
         <v>61</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E86" s="30" t="s">
+      <c r="E86" s="45" t="s">
         <v>151</v>
       </c>
       <c r="F86" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="26"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E87" s="29"/>
+      <c r="E87" s="46"/>
       <c r="F87" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="26"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="16"/>
-      <c r="E88" s="29"/>
+      <c r="E88" s="46"/>
       <c r="F88" s="18" t="s">
         <v>154</v>
       </c>
@@ -3695,52 +3695,52 @@
       <c r="A89" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="28"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="44"/>
       <c r="D89" s="21">
         <v>1908</v>
       </c>
-      <c r="E89" s="31"/>
+      <c r="E89" s="47"/>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B90" s="24">
+      <c r="B90" s="39">
         <v>35</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="30" t="s">
+      <c r="E90" s="45" t="s">
         <v>36</v>
       </c>
       <c r="F90" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="26"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E91" s="29"/>
+      <c r="E91" s="46"/>
       <c r="F91" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="26"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="16"/>
-      <c r="E92" s="29"/>
+      <c r="E92" s="46"/>
       <c r="F92" s="18" t="s">
         <v>39</v>
       </c>
@@ -3749,52 +3749,52 @@
       <c r="A93" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="28"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="21">
         <v>1351</v>
       </c>
-      <c r="E93" s="31"/>
+      <c r="E93" s="47"/>
       <c r="F93" s="22"/>
     </row>
-    <row r="94" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="24">
+      <c r="B94" s="39">
         <v>63</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F94" s="18" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="26"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E95" s="29"/>
+      <c r="E95" s="46"/>
       <c r="F95" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="19"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="26"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="43"/>
       <c r="D96" s="16"/>
-      <c r="E96" s="29"/>
+      <c r="E96" s="46"/>
       <c r="F96" s="18" t="s">
         <v>164</v>
       </c>
@@ -3803,88 +3803,88 @@
       <c r="A97" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="44"/>
       <c r="D97" s="21">
         <v>1663</v>
       </c>
-      <c r="E97" s="31"/>
+      <c r="E97" s="47"/>
       <c r="F97" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="E86:E89"/>
     <mergeCell ref="B90:B93"/>
     <mergeCell ref="C90:C93"/>
     <mergeCell ref="E90:E93"/>
     <mergeCell ref="B94:B97"/>
     <mergeCell ref="C94:C97"/>
     <mergeCell ref="E94:E97"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="E6:E9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="https://training.openspan.com/inventory" xr:uid="{04E89135-223E-43BA-B61D-BEC16C89A2DD}"/>
@@ -3921,152 +3921,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A1AA01-9A60-4984-9D3D-491B983EBD0A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="25">
         <v>2</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="25">
         <v>19</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="25">
         <v>18</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="26">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="25">
         <v>263.5</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="26">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="25">
         <v>4.5</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="26">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="25">
         <v>46</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="26">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="25">
         <v>18</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="26">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="25">
         <v>14</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="26">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="25">
         <v>15</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="26">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="25">
         <v>7.76</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="26">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="25">
         <v>14</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="26">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="32">
         <v>18</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="33">
         <v>35</v>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4103,145 +4103,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="25">
         <v>10</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="25">
         <v>22</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="25">
         <v>21.36</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="25">
         <v>15.5</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="26">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="25">
         <v>25</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="25">
         <v>19.46</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="26">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="25">
         <v>21.06</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="26">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="25">
         <v>17</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="26">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="25">
         <v>40</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="25">
         <v>13</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="26">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="25">
         <v>28.5</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="26">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="32">
         <v>43.9</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="33">
         <v>63</v>
       </c>
     </row>
@@ -4268,8 +4268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EEFA7-D110-4909-9FB4-7E871A24A473}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4279,1022 +4279,1022 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="30" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="25">
         <v>36801</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="25">
         <v>99611</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="25">
         <v>85374</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="25">
         <v>72404</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="25">
         <v>91766</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="25">
         <v>80501</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="25">
         <v>6824</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="25">
         <v>19802</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="25">
         <v>32097</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="25">
         <v>30269</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="25">
         <v>96817</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="25">
         <v>83202</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="25">
         <v>60607</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="25">
         <v>46219</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="25">
         <v>50320</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="25">
         <v>67501</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="25">
         <v>40207</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="25">
         <v>70119</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="25">
         <v>4103</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="25">
         <v>20906</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="25">
         <v>2125</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="25">
         <v>48125</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="25">
         <v>55077</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="25">
         <v>39180</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="25">
         <v>63139</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="25">
         <v>59102</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="25">
         <v>68134</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="25">
         <v>89104</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="25">
         <v>3801</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="25">
         <v>7047</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="25">
         <v>87124</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="25">
         <v>10940</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="25">
         <v>27103</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="25">
         <v>58103</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="25">
         <v>43026</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="25">
         <v>73112</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="25">
         <v>97005</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="25">
         <v>15206</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="25">
         <v>2852</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="25">
         <v>29223</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="F41" s="44">
+      <c r="F41" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="25">
         <v>57106</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="25">
         <v>37204</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="25">
         <v>75209</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="25">
         <v>84601</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="F45" s="44">
+      <c r="F45" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="25">
         <v>5701</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F46" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="25">
         <v>20110</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="F47" s="44">
+      <c r="F47" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="25">
         <v>98134</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="F48" s="44">
+      <c r="F48" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="25">
         <v>25309</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="F49" s="44">
+      <c r="F49" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="25">
         <v>53207</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="F50" s="44">
+      <c r="F50" s="35">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="32">
         <v>82001</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="37">
         <v>0.49444444444444446</v>
       </c>
     </row>

--- a/Code/vajrang/August2022/AugustTeam2022/Week2/New Microsoft Excel Worksheet.xlsx
+++ b/Code/vajrang/August2022/AugustTeam2022/Week2/New Microsoft Excel Worksheet.xlsx
@@ -5,31 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\GitHub\RPA-Developer-in-30-Days\Code\vajrang\August2022\AugustTeam2022\Week2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\GitSpace\RPA-Developer-in-30-Days\Code\vajrang\August2022\AugustTeam2022\Week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE700F4-B6E9-4444-8A85-7A680F6AF49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51CCACE-6EBC-4E02-A554-52C8E8B4AF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Inventory" sheetId="2" r:id="rId2"/>
     <sheet name="Beverages" sheetId="3" r:id="rId3"/>
     <sheet name="Seasonings" sheetId="4" r:id="rId4"/>
-    <sheet name="Stores" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Stores" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="397">
   <si>
     <t>Product</t>
   </si>
@@ -1669,6 +1680,72 @@
   </si>
   <si>
     <t>Texas	6110 Lemmon Ave	Dallas	75209</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Transaction Number</t>
+  </si>
+  <si>
+    <t>Transaction Id</t>
+  </si>
+  <si>
+    <t>Transaction Field1</t>
+  </si>
+  <si>
+    <t>Transactio Field2</t>
+  </si>
+  <si>
+    <t>Transaction Data</t>
+  </si>
+  <si>
+    <t>Complete table</t>
+  </si>
+  <si>
+    <t>Transactctionitem("ProductID")</t>
+  </si>
+  <si>
+    <t>TransctionItem("Price")</t>
+  </si>
+  <si>
+    <t>TransactionItem("Product)</t>
+  </si>
+  <si>
+    <t>current index</t>
+  </si>
+  <si>
+    <t>always be table</t>
+  </si>
+  <si>
+    <t>Transactio nItem</t>
+  </si>
+  <si>
+    <t>Complete row at 0 index</t>
+  </si>
+  <si>
+    <t>complete row at index 5</t>
+  </si>
+  <si>
+    <t>TransactionItem</t>
+  </si>
+  <si>
+    <t>array of all file paths</t>
+  </si>
+  <si>
+    <t>"D:\Uipath\GitSpace\RPA-Developer-in-30-Days\Code\vajrang\August2022\AugustTeam2022\Week2\RoboticEnterpriseFramework\Data\Input\placeholder - Copy (2).txt"</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6)</t>
+  </si>
+  <si>
+    <t>Every number must be multiplied by itself and provide me result</t>
+  </si>
+  <si>
+    <t>Complete array</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1959,12 +2036,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2104,6 +2196,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3813,78 +3921,78 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="E14:E17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="E94:E97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="https://training.openspan.com/inventory" xr:uid="{04E89135-223E-43BA-B61D-BEC16C89A2DD}"/>
@@ -3921,7 +4029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A1AA01-9A60-4984-9D3D-491B983EBD0A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4090,159 +4198,268 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE348E-8E82-427B-B4BF-7377883945E7}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="36" style="52" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="52"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="D1" s="48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="50">
         <v>10</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="51">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="D2" s="52">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="50">
         <v>22</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="51">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="D3" s="52">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="50">
         <v>21.36</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="51">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="D4" s="52">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>378</v>
+      </c>
+      <c r="I4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="50">
         <v>15.5</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="51">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="D5" s="52">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="50">
         <v>25</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="51">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="D6" s="52">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="50">
         <v>19.46</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="51">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="D7" s="52">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="50">
         <v>21.06</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="51">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="D8" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="50">
         <v>17</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="51">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="D9" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="50">
         <v>40</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="51">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="D10" s="52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="50">
         <v>13</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="51">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="D11" s="52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="50">
         <v>28.5</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="51">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+      <c r="D12" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="50">
         <v>43.9</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="51">
         <v>63</v>
+      </c>
+      <c r="D13" s="52">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4265,6 +4482,101 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC8BD4-6BE1-4C8D-9DDB-7D381ADFE92E}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EEFA7-D110-4909-9FB4-7E871A24A473}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -4738,7 +5050,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>262</v>
       </c>
@@ -4858,7 +5170,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>286</v>
       </c>
@@ -4898,7 +5210,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>294</v>
       </c>
@@ -4918,7 +5230,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>298</v>
       </c>
@@ -4938,7 +5250,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>302</v>
       </c>
@@ -4998,7 +5310,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
         <v>314</v>
       </c>
@@ -5038,7 +5350,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="s">
         <v>322</v>
       </c>
@@ -5058,7 +5370,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
         <v>326</v>
       </c>
@@ -5098,7 +5410,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
         <v>334</v>
       </c>
@@ -5198,7 +5510,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
         <v>354</v>
       </c>
@@ -5238,7 +5550,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
         <v>362</v>
       </c>
@@ -5258,7 +5570,7 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>366</v>
       </c>
